--- a/data/trans_dic/P55_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,13 +514,16 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
-recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses</t>
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,35%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -507,16 +532,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -528,12 +556,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -543,6 +586,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -557,17 +603,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
         </is>
       </c>
     </row>
@@ -580,17 +641,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>8,74; 35,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>9,55; 46,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,09; 13,29</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 12,22</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 23,35</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 30,93</t>
         </is>
       </c>
     </row>
@@ -607,17 +683,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -630,17 +721,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>5,78; 18,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>1,73; 11,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,62; 15,23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 31,72</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 14,45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 18,96</t>
         </is>
       </c>
     </row>
@@ -657,17 +763,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,33%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
         </is>
       </c>
     </row>
@@ -680,17 +801,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>3,21; 69,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>3,27; 35,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>7,42; 34,3</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 14,4</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 49,01</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 19,53</t>
         </is>
       </c>
     </row>
@@ -707,17 +843,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -730,28 +881,645 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,07; 28,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,75; 29,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>6,65; 12,78</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 18,54</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9,28; 18,42</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8,36; 19,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido retrasos en el pago de gastos relacionados con la vivienda principal (hipoteca o alquiler, 
+recibos de gas, comunidad...) o en compras a plazos en los últimos 12 meses (tasa de respuesta: 99,35%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>65118</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>105458</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34642</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39511</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>99761</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>144969</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>32665; 132626</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>47168; 230237</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20455; 53424</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21291; 68467</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62957; 181132</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83608; 326071</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33950</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20478</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27508</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>68065</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>61458</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>88543</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18231; 57590</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7114; 47858</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14999; 49379</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35559; 135642</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>40235; 92457</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52978; 159260</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25565</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16782</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14304</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3497</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39868</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20279</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2746; 59839</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3908; 42025</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6128; 28316</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16036</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15137; 82406</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5886; 45067</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>124633</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>142717</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>76454</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111073</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>201087</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>253790</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>78053; 217626</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>79457; 304669</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>53759; 103401</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>74566; 203820</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>146911; 291740</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>177760; 405267</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>